--- a/Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/Financials/Yearly/DEO_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA9DD9-0174-47E9-A720-E667661C4013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEO" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16016100</v>
+        <v>15864300</v>
       </c>
       <c r="E8" s="3">
-        <v>15867300</v>
+        <v>15716900</v>
       </c>
       <c r="F8" s="3">
-        <v>13806500</v>
+        <v>13675700</v>
       </c>
       <c r="G8" s="3">
-        <v>14238500</v>
+        <v>14103500</v>
       </c>
       <c r="H8" s="3">
-        <v>13507600</v>
+        <v>13379600</v>
       </c>
       <c r="I8" s="3">
-        <v>14883700</v>
+        <v>14742600</v>
       </c>
       <c r="J8" s="3">
-        <v>14009300</v>
+        <v>13876600</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6102000</v>
+        <v>6044200</v>
       </c>
       <c r="E9" s="3">
-        <v>6162600</v>
+        <v>6104200</v>
       </c>
       <c r="F9" s="3">
-        <v>5597700</v>
+        <v>5544600</v>
       </c>
       <c r="G9" s="3">
-        <v>6037500</v>
+        <v>5980300</v>
       </c>
       <c r="H9" s="3">
-        <v>5275100</v>
+        <v>5225100</v>
       </c>
       <c r="I9" s="3">
-        <v>5814900</v>
+        <v>5759800</v>
       </c>
       <c r="J9" s="3">
-        <v>5541100</v>
+        <v>5488500</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9914100</v>
+        <v>9820100</v>
       </c>
       <c r="E10" s="3">
-        <v>9704700</v>
+        <v>9612800</v>
       </c>
       <c r="F10" s="3">
-        <v>8208900</v>
+        <v>8131100</v>
       </c>
       <c r="G10" s="3">
-        <v>8201000</v>
+        <v>8123200</v>
       </c>
       <c r="H10" s="3">
-        <v>8232600</v>
+        <v>8154500</v>
       </c>
       <c r="I10" s="3">
-        <v>9068700</v>
+        <v>8982800</v>
       </c>
       <c r="J10" s="3">
-        <v>8468300</v>
+        <v>8388000</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,34 +889,34 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>168500</v>
+        <v>167000</v>
       </c>
       <c r="E14" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="F14" s="3">
-        <v>57900</v>
+        <v>57400</v>
       </c>
       <c r="G14" s="3">
-        <v>-136900</v>
+        <v>-135600</v>
       </c>
       <c r="H14" s="3">
-        <v>377900</v>
+        <v>374300</v>
       </c>
       <c r="I14" s="3">
-        <v>109300</v>
+        <v>108300</v>
       </c>
       <c r="J14" s="3">
-        <v>-193600</v>
+        <v>-191700</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11155800</v>
+        <v>11050100</v>
       </c>
       <c r="E17" s="3">
-        <v>11154500</v>
+        <v>11048800</v>
       </c>
       <c r="F17" s="3">
-        <v>9903600</v>
+        <v>9809700</v>
       </c>
       <c r="G17" s="3">
-        <v>10064200</v>
+        <v>9968800</v>
       </c>
       <c r="H17" s="3">
-        <v>9758700</v>
+        <v>9666200</v>
       </c>
       <c r="I17" s="3">
-        <v>10542200</v>
+        <v>10442300</v>
       </c>
       <c r="J17" s="3">
-        <v>9723200</v>
+        <v>9631000</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4860300</v>
+        <v>4814200</v>
       </c>
       <c r="E18" s="3">
-        <v>4712800</v>
+        <v>4668100</v>
       </c>
       <c r="F18" s="3">
-        <v>3903000</v>
+        <v>3866000</v>
       </c>
       <c r="G18" s="3">
-        <v>4174200</v>
+        <v>4134700</v>
       </c>
       <c r="H18" s="3">
-        <v>3748900</v>
+        <v>3713400</v>
       </c>
       <c r="I18" s="3">
-        <v>4341500</v>
+        <v>4300300</v>
       </c>
       <c r="J18" s="3">
-        <v>4286200</v>
+        <v>4245500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>584700</v>
+        <v>579100</v>
       </c>
       <c r="E20" s="3">
-        <v>567500</v>
+        <v>562200</v>
       </c>
       <c r="F20" s="3">
-        <v>464800</v>
+        <v>460400</v>
       </c>
       <c r="G20" s="3">
-        <v>383200</v>
+        <v>379600</v>
       </c>
       <c r="H20" s="3">
-        <v>420100</v>
+        <v>416100</v>
       </c>
       <c r="I20" s="3">
-        <v>345000</v>
+        <v>341700</v>
       </c>
       <c r="J20" s="3">
-        <v>370000</v>
+        <v>366500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6091700</v>
+        <v>6043500</v>
       </c>
       <c r="E21" s="3">
-        <v>5753900</v>
+        <v>5706400</v>
       </c>
       <c r="F21" s="3">
-        <v>4988300</v>
+        <v>4950200</v>
       </c>
       <c r="G21" s="3">
-        <v>5134700</v>
+        <v>5094500</v>
       </c>
       <c r="H21" s="3">
-        <v>4994100</v>
+        <v>4959000</v>
       </c>
       <c r="I21" s="3">
-        <v>5208600</v>
+        <v>5167000</v>
       </c>
       <c r="J21" s="3">
-        <v>5190100</v>
+        <v>5148800</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>520100</v>
+        <v>515200</v>
       </c>
       <c r="E22" s="3">
-        <v>593900</v>
+        <v>588200</v>
       </c>
       <c r="F22" s="3">
-        <v>604400</v>
+        <v>598700</v>
       </c>
       <c r="G22" s="3">
-        <v>695300</v>
+        <v>688700</v>
       </c>
       <c r="H22" s="3">
-        <v>599100</v>
+        <v>593500</v>
       </c>
       <c r="I22" s="3">
-        <v>661000</v>
+        <v>654800</v>
       </c>
       <c r="J22" s="3">
-        <v>649200</v>
+        <v>643000</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4924800</v>
+        <v>4878100</v>
       </c>
       <c r="E23" s="3">
-        <v>4686500</v>
+        <v>4642000</v>
       </c>
       <c r="F23" s="3">
-        <v>3763400</v>
+        <v>3727700</v>
       </c>
       <c r="G23" s="3">
-        <v>3862100</v>
+        <v>3825500</v>
       </c>
       <c r="H23" s="3">
-        <v>3569800</v>
+        <v>3536000</v>
       </c>
       <c r="I23" s="3">
-        <v>4025400</v>
+        <v>3987300</v>
       </c>
       <c r="J23" s="3">
-        <v>4007000</v>
+        <v>3969000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1251000</v>
+        <v>1239100</v>
       </c>
       <c r="E24" s="3">
-        <v>963900</v>
+        <v>954800</v>
       </c>
       <c r="F24" s="3">
-        <v>653100</v>
+        <v>646900</v>
       </c>
       <c r="G24" s="3">
-        <v>613600</v>
+        <v>607800</v>
       </c>
       <c r="H24" s="3">
-        <v>588600</v>
+        <v>583000</v>
       </c>
       <c r="I24" s="3">
-        <v>667600</v>
+        <v>661300</v>
       </c>
       <c r="J24" s="3">
-        <v>1331300</v>
+        <v>1318700</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3673800</v>
+        <v>3639000</v>
       </c>
       <c r="E26" s="3">
-        <v>3722600</v>
+        <v>3687300</v>
       </c>
       <c r="F26" s="3">
-        <v>3110300</v>
+        <v>3080800</v>
       </c>
       <c r="G26" s="3">
-        <v>3248500</v>
+        <v>3217700</v>
       </c>
       <c r="H26" s="3">
-        <v>2981200</v>
+        <v>2953000</v>
       </c>
       <c r="I26" s="3">
-        <v>3357800</v>
+        <v>3326000</v>
       </c>
       <c r="J26" s="3">
-        <v>2675700</v>
+        <v>2650400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3513200</v>
+        <v>3479900</v>
       </c>
       <c r="E27" s="3">
-        <v>3577700</v>
+        <v>3543800</v>
       </c>
       <c r="F27" s="3">
-        <v>2954900</v>
+        <v>2926900</v>
       </c>
       <c r="G27" s="3">
-        <v>3135300</v>
+        <v>3105600</v>
       </c>
       <c r="H27" s="3">
-        <v>3069400</v>
+        <v>3040300</v>
       </c>
       <c r="I27" s="3">
-        <v>3228800</v>
+        <v>3198200</v>
       </c>
       <c r="J27" s="3">
-        <v>2517700</v>
+        <v>2493800</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,15 +1263,15 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>466100</v>
+        <v>461700</v>
       </c>
       <c r="E29" s="3">
-        <v>-72400</v>
+        <v>-71700</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1245,17 +1280,17 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-109300</v>
+        <v>-108300</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-14500</v>
+        <v>-14300</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-584700</v>
+        <v>-579100</v>
       </c>
       <c r="E32" s="3">
-        <v>-567500</v>
+        <v>-562200</v>
       </c>
       <c r="F32" s="3">
-        <v>-464800</v>
+        <v>-460400</v>
       </c>
       <c r="G32" s="3">
-        <v>-383200</v>
+        <v>-379600</v>
       </c>
       <c r="H32" s="3">
-        <v>-420100</v>
+        <v>-416100</v>
       </c>
       <c r="I32" s="3">
-        <v>-345000</v>
+        <v>-341700</v>
       </c>
       <c r="J32" s="3">
-        <v>-370000</v>
+        <v>-366500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3979300</v>
+        <v>3941600</v>
       </c>
       <c r="E33" s="3">
-        <v>3505300</v>
+        <v>3472100</v>
       </c>
       <c r="F33" s="3">
-        <v>2954900</v>
+        <v>2926900</v>
       </c>
       <c r="G33" s="3">
-        <v>3135300</v>
+        <v>3105600</v>
       </c>
       <c r="H33" s="3">
-        <v>2960100</v>
+        <v>2932100</v>
       </c>
       <c r="I33" s="3">
-        <v>3228800</v>
+        <v>3198200</v>
       </c>
       <c r="J33" s="3">
-        <v>2503200</v>
+        <v>2479500</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3979300</v>
+        <v>3941600</v>
       </c>
       <c r="E35" s="3">
-        <v>3505300</v>
+        <v>3472100</v>
       </c>
       <c r="F35" s="3">
-        <v>2954900</v>
+        <v>2926900</v>
       </c>
       <c r="G35" s="3">
-        <v>3135300</v>
+        <v>3105600</v>
       </c>
       <c r="H35" s="3">
-        <v>2960100</v>
+        <v>2932100</v>
       </c>
       <c r="I35" s="3">
-        <v>3228800</v>
+        <v>3198200</v>
       </c>
       <c r="J35" s="3">
-        <v>2503200</v>
+        <v>2479500</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1150900</v>
+        <v>1140000</v>
       </c>
       <c r="E41" s="3">
-        <v>1568300</v>
+        <v>1553400</v>
       </c>
       <c r="F41" s="3">
-        <v>1434000</v>
+        <v>1420400</v>
       </c>
       <c r="G41" s="3">
-        <v>621500</v>
+        <v>615600</v>
       </c>
       <c r="H41" s="3">
-        <v>819000</v>
+        <v>811300</v>
       </c>
       <c r="I41" s="3">
-        <v>3322300</v>
+        <v>3290800</v>
       </c>
       <c r="J41" s="3">
-        <v>1416900</v>
+        <v>1403400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="E42" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="F42" s="3">
-        <v>196200</v>
+        <v>194300</v>
       </c>
       <c r="G42" s="3">
-        <v>60600</v>
+        <v>60000</v>
       </c>
       <c r="H42" s="3">
-        <v>155400</v>
+        <v>153900</v>
       </c>
       <c r="I42" s="3">
-        <v>171200</v>
+        <v>169600</v>
       </c>
       <c r="J42" s="3">
-        <v>55300</v>
+        <v>54800</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3405200</v>
+        <v>3372900</v>
       </c>
       <c r="E43" s="3">
-        <v>3203800</v>
+        <v>3173400</v>
       </c>
       <c r="F43" s="3">
-        <v>3288000</v>
+        <v>3256900</v>
       </c>
       <c r="G43" s="3">
-        <v>3014100</v>
+        <v>2985600</v>
       </c>
       <c r="H43" s="3">
-        <v>3103700</v>
+        <v>3074300</v>
       </c>
       <c r="I43" s="3">
-        <v>3045700</v>
+        <v>3016900</v>
       </c>
       <c r="J43" s="3">
-        <v>2582200</v>
+        <v>2557800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6603700</v>
+        <v>6541100</v>
       </c>
       <c r="E44" s="3">
-        <v>6304800</v>
+        <v>6245000</v>
       </c>
       <c r="F44" s="3">
-        <v>6029600</v>
+        <v>5972400</v>
       </c>
       <c r="G44" s="3">
-        <v>6023000</v>
+        <v>5965900</v>
       </c>
       <c r="H44" s="3">
-        <v>5559500</v>
+        <v>5506800</v>
       </c>
       <c r="I44" s="3">
-        <v>5539700</v>
+        <v>5487200</v>
       </c>
       <c r="J44" s="3">
-        <v>5207900</v>
+        <v>5158500</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>251500</v>
+        <v>249100</v>
       </c>
       <c r="E45" s="3">
-        <v>284400</v>
+        <v>281700</v>
       </c>
       <c r="F45" s="3">
-        <v>708400</v>
+        <v>701700</v>
       </c>
       <c r="G45" s="3">
-        <v>380600</v>
+        <v>376900</v>
       </c>
       <c r="H45" s="3">
-        <v>197500</v>
+        <v>195600</v>
       </c>
       <c r="I45" s="3">
-        <v>230400</v>
+        <v>228300</v>
       </c>
       <c r="J45" s="3">
-        <v>288400</v>
+        <v>285600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11444200</v>
+        <v>11335800</v>
       </c>
       <c r="E46" s="3">
-        <v>11392900</v>
+        <v>11284900</v>
       </c>
       <c r="F46" s="3">
-        <v>11656200</v>
+        <v>11545800</v>
       </c>
       <c r="G46" s="3">
-        <v>10099800</v>
+        <v>10004100</v>
       </c>
       <c r="H46" s="3">
-        <v>9835100</v>
+        <v>9741900</v>
       </c>
       <c r="I46" s="3">
-        <v>11205900</v>
+        <v>11099700</v>
       </c>
       <c r="J46" s="3">
-        <v>9550700</v>
+        <v>9460200</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4092600</v>
+        <v>4053800</v>
       </c>
       <c r="E47" s="3">
-        <v>3872700</v>
+        <v>3836000</v>
       </c>
       <c r="F47" s="3">
-        <v>3464500</v>
+        <v>3431600</v>
       </c>
       <c r="G47" s="3">
-        <v>3311700</v>
+        <v>3280300</v>
       </c>
       <c r="H47" s="3">
-        <v>4768100</v>
+        <v>4722900</v>
       </c>
       <c r="I47" s="3">
-        <v>4546900</v>
+        <v>4503800</v>
       </c>
       <c r="J47" s="3">
-        <v>3843700</v>
+        <v>3807300</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5414600</v>
+        <v>5363300</v>
       </c>
       <c r="E48" s="3">
-        <v>5313200</v>
+        <v>5262900</v>
       </c>
       <c r="F48" s="3">
-        <v>5123600</v>
+        <v>5075100</v>
       </c>
       <c r="G48" s="3">
-        <v>4944500</v>
+        <v>4897700</v>
       </c>
       <c r="H48" s="3">
-        <v>4590300</v>
+        <v>4546800</v>
       </c>
       <c r="I48" s="3">
-        <v>1582800</v>
+        <v>1567800</v>
       </c>
       <c r="J48" s="3">
-        <v>3958300</v>
+        <v>3920800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16554700</v>
+        <v>16397800</v>
       </c>
       <c r="E49" s="3">
-        <v>16546800</v>
+        <v>16390000</v>
       </c>
       <c r="F49" s="3">
-        <v>16288700</v>
+        <v>16134300</v>
       </c>
       <c r="G49" s="3">
-        <v>14788900</v>
+        <v>14648700</v>
       </c>
       <c r="H49" s="3">
-        <v>10390800</v>
+        <v>10292300</v>
       </c>
       <c r="I49" s="3">
-        <v>13033600</v>
+        <v>12910100</v>
       </c>
       <c r="J49" s="3">
-        <v>11615400</v>
+        <v>11505300</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1622300</v>
+        <v>1606900</v>
       </c>
       <c r="E52" s="3">
-        <v>861200</v>
+        <v>853000</v>
       </c>
       <c r="F52" s="3">
-        <v>983600</v>
+        <v>974300</v>
       </c>
       <c r="G52" s="3">
-        <v>833500</v>
+        <v>825600</v>
       </c>
       <c r="H52" s="3">
-        <v>654400</v>
+        <v>648200</v>
       </c>
       <c r="I52" s="3">
-        <v>729500</v>
+        <v>722600</v>
       </c>
       <c r="J52" s="3">
-        <v>462200</v>
+        <v>457800</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39128400</v>
+        <v>38757600</v>
       </c>
       <c r="E54" s="3">
-        <v>37986800</v>
+        <v>37626700</v>
       </c>
       <c r="F54" s="3">
-        <v>37516700</v>
+        <v>37161100</v>
       </c>
       <c r="G54" s="3">
-        <v>33978400</v>
+        <v>33656400</v>
       </c>
       <c r="H54" s="3">
-        <v>30238800</v>
+        <v>29952200</v>
       </c>
       <c r="I54" s="3">
-        <v>32907900</v>
+        <v>32596000</v>
       </c>
       <c r="J54" s="3">
-        <v>29430300</v>
+        <v>29151300</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1993600</v>
+        <v>1974700</v>
       </c>
       <c r="E57" s="3">
-        <v>1797400</v>
+        <v>1780400</v>
       </c>
       <c r="F57" s="3">
-        <v>1432700</v>
+        <v>1419100</v>
       </c>
       <c r="G57" s="3">
-        <v>1162700</v>
+        <v>1151700</v>
       </c>
       <c r="H57" s="3">
-        <v>1189100</v>
+        <v>1177800</v>
       </c>
       <c r="I57" s="3">
-        <v>1431400</v>
+        <v>1417800</v>
       </c>
       <c r="J57" s="3">
-        <v>1419500</v>
+        <v>1406000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2447900</v>
+        <v>2424700</v>
       </c>
       <c r="E58" s="3">
-        <v>3272200</v>
+        <v>3241200</v>
       </c>
       <c r="F58" s="3">
-        <v>2748100</v>
+        <v>2722100</v>
       </c>
       <c r="G58" s="3">
-        <v>2735000</v>
+        <v>2709100</v>
       </c>
       <c r="H58" s="3">
-        <v>2267500</v>
+        <v>2246000</v>
       </c>
       <c r="I58" s="3">
-        <v>2599300</v>
+        <v>2574700</v>
       </c>
       <c r="J58" s="3">
-        <v>1768400</v>
+        <v>1751700</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3933300</v>
+        <v>3896000</v>
       </c>
       <c r="E59" s="3">
-        <v>3700200</v>
+        <v>3665100</v>
       </c>
       <c r="F59" s="3">
-        <v>3966200</v>
+        <v>3928600</v>
       </c>
       <c r="G59" s="3">
-        <v>3068100</v>
+        <v>3039000</v>
       </c>
       <c r="H59" s="3">
-        <v>2931200</v>
+        <v>2903400</v>
       </c>
       <c r="I59" s="3">
-        <v>3236700</v>
+        <v>3206000</v>
       </c>
       <c r="J59" s="3">
-        <v>3111600</v>
+        <v>3082100</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8374800</v>
+        <v>8295400</v>
       </c>
       <c r="E60" s="3">
-        <v>8769800</v>
+        <v>8686700</v>
       </c>
       <c r="F60" s="3">
-        <v>8147000</v>
+        <v>8069800</v>
       </c>
       <c r="G60" s="3">
-        <v>6965800</v>
+        <v>6899800</v>
       </c>
       <c r="H60" s="3">
-        <v>6387700</v>
+        <v>6327200</v>
       </c>
       <c r="I60" s="3">
-        <v>7267400</v>
+        <v>7198500</v>
       </c>
       <c r="J60" s="3">
-        <v>6299500</v>
+        <v>6239800</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10795000</v>
+        <v>10692700</v>
       </c>
       <c r="E61" s="3">
-        <v>8875200</v>
+        <v>8791000</v>
       </c>
       <c r="F61" s="3">
-        <v>10908300</v>
+        <v>10804900</v>
       </c>
       <c r="G61" s="3">
-        <v>11008400</v>
+        <v>10904000</v>
       </c>
       <c r="H61" s="3">
-        <v>10057600</v>
+        <v>9962300</v>
       </c>
       <c r="I61" s="3">
-        <v>10820100</v>
+        <v>10717500</v>
       </c>
       <c r="J61" s="3">
-        <v>10015500</v>
+        <v>9920600</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4535000</v>
+        <v>4492000</v>
       </c>
       <c r="E62" s="3">
-        <v>4503400</v>
+        <v>4460700</v>
       </c>
       <c r="F62" s="3">
-        <v>5389600</v>
+        <v>5338500</v>
       </c>
       <c r="G62" s="3">
-        <v>3816100</v>
+        <v>3779900</v>
       </c>
       <c r="H62" s="3">
-        <v>3798900</v>
+        <v>3762900</v>
       </c>
       <c r="I62" s="3">
-        <v>4313800</v>
+        <v>4272900</v>
       </c>
       <c r="J62" s="3">
-        <v>4146600</v>
+        <v>4107300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26029000</v>
+        <v>25782300</v>
       </c>
       <c r="E66" s="3">
-        <v>24406700</v>
+        <v>24175400</v>
       </c>
       <c r="F66" s="3">
-        <v>26284400</v>
+        <v>26035300</v>
       </c>
       <c r="G66" s="3">
-        <v>23745700</v>
+        <v>23520600</v>
       </c>
       <c r="H66" s="3">
-        <v>21254300</v>
+        <v>21052900</v>
       </c>
       <c r="I66" s="3">
-        <v>23643000</v>
+        <v>23418900</v>
       </c>
       <c r="J66" s="3">
-        <v>22072000</v>
+        <v>21862800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14475500</v>
+        <v>14338300</v>
       </c>
       <c r="E72" s="3">
-        <v>14217400</v>
+        <v>14082600</v>
       </c>
       <c r="F72" s="3">
-        <v>11977500</v>
+        <v>11864000</v>
       </c>
       <c r="G72" s="3">
-        <v>11861600</v>
+        <v>11749200</v>
       </c>
       <c r="H72" s="3">
-        <v>10355200</v>
+        <v>10257100</v>
       </c>
       <c r="I72" s="3">
-        <v>9374200</v>
+        <v>9285400</v>
       </c>
       <c r="J72" s="3">
-        <v>3280100</v>
+        <v>3249000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13099400</v>
+        <v>12975300</v>
       </c>
       <c r="E76" s="3">
-        <v>13580100</v>
+        <v>13451300</v>
       </c>
       <c r="F76" s="3">
-        <v>11232200</v>
+        <v>11125800</v>
       </c>
       <c r="G76" s="3">
-        <v>10232800</v>
+        <v>10135800</v>
       </c>
       <c r="H76" s="3">
-        <v>8984500</v>
+        <v>8899300</v>
       </c>
       <c r="I76" s="3">
-        <v>9264900</v>
+        <v>9177100</v>
       </c>
       <c r="J76" s="3">
-        <v>7358200</v>
+        <v>7288500</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3979300</v>
+        <v>3941600</v>
       </c>
       <c r="E81" s="3">
-        <v>3505300</v>
+        <v>3472100</v>
       </c>
       <c r="F81" s="3">
-        <v>2954900</v>
+        <v>2926900</v>
       </c>
       <c r="G81" s="3">
-        <v>3135300</v>
+        <v>3105600</v>
       </c>
       <c r="H81" s="3">
-        <v>2960100</v>
+        <v>2932100</v>
       </c>
       <c r="I81" s="3">
-        <v>3228800</v>
+        <v>3198200</v>
       </c>
       <c r="J81" s="3">
-        <v>2503200</v>
+        <v>2479500</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>649200</v>
+        <v>643000</v>
       </c>
       <c r="E83" s="3">
-        <v>475400</v>
+        <v>470900</v>
       </c>
       <c r="F83" s="3">
-        <v>622800</v>
+        <v>616900</v>
       </c>
       <c r="G83" s="3">
-        <v>579400</v>
+        <v>573900</v>
       </c>
       <c r="H83" s="3">
-        <v>828300</v>
+        <v>820400</v>
       </c>
       <c r="I83" s="3">
-        <v>524100</v>
+        <v>519100</v>
       </c>
       <c r="J83" s="3">
-        <v>535900</v>
+        <v>530900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4061000</v>
+        <v>4022500</v>
       </c>
       <c r="E89" s="3">
-        <v>4124200</v>
+        <v>4085100</v>
       </c>
       <c r="F89" s="3">
-        <v>3355200</v>
+        <v>3323400</v>
       </c>
       <c r="G89" s="3">
-        <v>3359100</v>
+        <v>3327300</v>
       </c>
       <c r="H89" s="3">
-        <v>2357100</v>
+        <v>2334700</v>
       </c>
       <c r="I89" s="3">
-        <v>2677000</v>
+        <v>2651700</v>
       </c>
       <c r="J89" s="3">
-        <v>2760000</v>
+        <v>2733800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-769000</v>
+        <v>-761700</v>
       </c>
       <c r="E91" s="3">
-        <v>-682100</v>
+        <v>-675600</v>
       </c>
       <c r="F91" s="3">
-        <v>-666300</v>
+        <v>-660000</v>
       </c>
       <c r="G91" s="3">
-        <v>-840100</v>
+        <v>-832100</v>
       </c>
       <c r="H91" s="3">
-        <v>-845400</v>
+        <v>-837400</v>
       </c>
       <c r="I91" s="3">
-        <v>-837500</v>
+        <v>-829500</v>
       </c>
       <c r="J91" s="3">
-        <v>-628100</v>
+        <v>-622200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1515600</v>
+        <v>-1501300</v>
       </c>
       <c r="E94" s="3">
-        <v>-726900</v>
+        <v>-720000</v>
       </c>
       <c r="F94" s="3">
-        <v>784800</v>
+        <v>777400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1177200</v>
+        <v>-1166100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1434000</v>
+        <v>-1420400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1634100</v>
+        <v>-1618600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2380800</v>
+        <v>-2358200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2081800</v>
+        <v>-2062100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1994900</v>
+        <v>-1976000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1900100</v>
+        <v>-1882100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1765800</v>
+        <v>-1749100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1617000</v>
+        <v>-1601700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1481400</v>
+        <v>-1467300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1364200</v>
+        <v>-1351300</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2789000</v>
+        <v>-2762500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3236700</v>
+        <v>-3206000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3688300</v>
+        <v>-3653400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2283300</v>
+        <v>-2261700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2135800</v>
+        <v>-2115600</v>
       </c>
       <c r="I100" s="3">
-        <v>-260700</v>
+        <v>-258300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1037600</v>
+        <v>-1027800</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="E101" s="3">
-        <v>-18400</v>
+        <v>-18300</v>
       </c>
       <c r="F101" s="3">
-        <v>110600</v>
+        <v>109600</v>
       </c>
       <c r="G101" s="3">
-        <v>-96100</v>
+        <v>-95200</v>
       </c>
       <c r="H101" s="3">
-        <v>-252800</v>
+        <v>-250400</v>
       </c>
       <c r="I101" s="3">
-        <v>47400</v>
+        <v>47000</v>
       </c>
       <c r="J101" s="3">
-        <v>-35600</v>
+        <v>-35200</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-295000</v>
+        <v>-292200</v>
       </c>
       <c r="E102" s="3">
-        <v>142200</v>
+        <v>140900</v>
       </c>
       <c r="F102" s="3">
-        <v>562300</v>
+        <v>556900</v>
       </c>
       <c r="G102" s="3">
-        <v>-197500</v>
+        <v>-195600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1465600</v>
+        <v>-1451700</v>
       </c>
       <c r="I102" s="3">
-        <v>829600</v>
+        <v>821700</v>
       </c>
       <c r="J102" s="3">
-        <v>-693900</v>
+        <v>-687400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/DEO_YR_FIN.xlsx
+++ b/Financials/Yearly/DEO_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA9DD9-0174-47E9-A720-E667661C4013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DEO" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42916</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42551</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42185</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41820</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41455</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41090</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15864300</v>
+        <v>16634600</v>
       </c>
       <c r="E8" s="3">
-        <v>15716900</v>
+        <v>15724400</v>
       </c>
       <c r="F8" s="3">
-        <v>13675700</v>
+        <v>15578400</v>
       </c>
       <c r="G8" s="3">
-        <v>14103500</v>
+        <v>13555100</v>
       </c>
       <c r="H8" s="3">
-        <v>13379600</v>
+        <v>13979200</v>
       </c>
       <c r="I8" s="3">
-        <v>14742600</v>
+        <v>13261600</v>
       </c>
       <c r="J8" s="3">
+        <v>14612600</v>
+      </c>
+      <c r="K8" s="3">
         <v>13876600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6044200</v>
+        <v>6290800</v>
       </c>
       <c r="E9" s="3">
-        <v>6104200</v>
+        <v>5990900</v>
       </c>
       <c r="F9" s="3">
-        <v>5544600</v>
+        <v>6050400</v>
       </c>
       <c r="G9" s="3">
-        <v>5980300</v>
+        <v>5495700</v>
       </c>
       <c r="H9" s="3">
-        <v>5225100</v>
+        <v>5927500</v>
       </c>
       <c r="I9" s="3">
-        <v>5759800</v>
+        <v>5179000</v>
       </c>
       <c r="J9" s="3">
+        <v>5709000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5488500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9820100</v>
+        <v>10343800</v>
       </c>
       <c r="E10" s="3">
-        <v>9612800</v>
+        <v>9733600</v>
       </c>
       <c r="F10" s="3">
-        <v>8131100</v>
+        <v>9528000</v>
       </c>
       <c r="G10" s="3">
-        <v>8123200</v>
+        <v>8059400</v>
       </c>
       <c r="H10" s="3">
-        <v>8154500</v>
+        <v>8051600</v>
       </c>
       <c r="I10" s="3">
-        <v>8982800</v>
+        <v>8082600</v>
       </c>
       <c r="J10" s="3">
+        <v>8903600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8388000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>167000</v>
+        <v>-90500</v>
       </c>
       <c r="E14" s="3">
-        <v>28700</v>
+        <v>165500</v>
       </c>
       <c r="F14" s="3">
-        <v>57400</v>
+        <v>28400</v>
       </c>
       <c r="G14" s="3">
-        <v>-135600</v>
+        <v>56900</v>
       </c>
       <c r="H14" s="3">
-        <v>374300</v>
+        <v>-134500</v>
       </c>
       <c r="I14" s="3">
-        <v>108300</v>
+        <v>371000</v>
       </c>
       <c r="J14" s="3">
+        <v>107300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-191700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11050100</v>
+        <v>11234500</v>
       </c>
       <c r="E17" s="3">
-        <v>11048800</v>
+        <v>10952700</v>
       </c>
       <c r="F17" s="3">
-        <v>9809700</v>
+        <v>10951400</v>
       </c>
       <c r="G17" s="3">
-        <v>9968800</v>
+        <v>9723200</v>
       </c>
       <c r="H17" s="3">
-        <v>9666200</v>
+        <v>9880900</v>
       </c>
       <c r="I17" s="3">
-        <v>10442300</v>
+        <v>9581000</v>
       </c>
       <c r="J17" s="3">
+        <v>10350200</v>
+      </c>
+      <c r="K17" s="3">
         <v>9631000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4814200</v>
+        <v>5400100</v>
       </c>
       <c r="E18" s="3">
-        <v>4668100</v>
+        <v>4771800</v>
       </c>
       <c r="F18" s="3">
-        <v>3866000</v>
+        <v>4627000</v>
       </c>
       <c r="G18" s="3">
-        <v>4134700</v>
+        <v>3831900</v>
       </c>
       <c r="H18" s="3">
-        <v>3713400</v>
+        <v>4098200</v>
       </c>
       <c r="I18" s="3">
-        <v>4300300</v>
+        <v>3680600</v>
       </c>
       <c r="J18" s="3">
+        <v>4262400</v>
+      </c>
+      <c r="K18" s="3">
         <v>4245500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>579100</v>
+        <v>692900</v>
       </c>
       <c r="E20" s="3">
-        <v>562200</v>
+        <v>574000</v>
       </c>
       <c r="F20" s="3">
-        <v>460400</v>
+        <v>557200</v>
       </c>
       <c r="G20" s="3">
-        <v>379600</v>
+        <v>456400</v>
       </c>
       <c r="H20" s="3">
-        <v>416100</v>
+        <v>376200</v>
       </c>
       <c r="I20" s="3">
-        <v>341700</v>
+        <v>412400</v>
       </c>
       <c r="J20" s="3">
+        <v>338700</v>
+      </c>
+      <c r="K20" s="3">
         <v>366500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6043500</v>
+        <v>6579200</v>
       </c>
       <c r="E21" s="3">
-        <v>5706400</v>
+        <v>5986700</v>
       </c>
       <c r="F21" s="3">
-        <v>4950200</v>
+        <v>5653500</v>
       </c>
       <c r="G21" s="3">
-        <v>5094500</v>
+        <v>4903200</v>
       </c>
       <c r="H21" s="3">
-        <v>4959000</v>
+        <v>5046400</v>
       </c>
       <c r="I21" s="3">
-        <v>5167000</v>
+        <v>4910700</v>
       </c>
       <c r="J21" s="3">
+        <v>5118500</v>
+      </c>
+      <c r="K21" s="3">
         <v>5148800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>515200</v>
+        <v>618000</v>
       </c>
       <c r="E22" s="3">
+        <v>510700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>583100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>593400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>682600</v>
+      </c>
+      <c r="I22" s="3">
         <v>588200</v>
       </c>
-      <c r="F22" s="3">
-        <v>598700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>688700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>593500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>654800</v>
-      </c>
       <c r="J22" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K22" s="3">
         <v>643000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4878100</v>
+        <v>5475100</v>
       </c>
       <c r="E23" s="3">
-        <v>4642000</v>
+        <v>4835100</v>
       </c>
       <c r="F23" s="3">
-        <v>3727700</v>
+        <v>4601100</v>
       </c>
       <c r="G23" s="3">
-        <v>3825500</v>
+        <v>3694900</v>
       </c>
       <c r="H23" s="3">
-        <v>3536000</v>
+        <v>3791800</v>
       </c>
       <c r="I23" s="3">
-        <v>3987300</v>
+        <v>3504800</v>
       </c>
       <c r="J23" s="3">
+        <v>3952100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3969000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1239100</v>
+        <v>1160900</v>
       </c>
       <c r="E24" s="3">
-        <v>954800</v>
+        <v>1228200</v>
       </c>
       <c r="F24" s="3">
-        <v>646900</v>
+        <v>946300</v>
       </c>
       <c r="G24" s="3">
-        <v>607800</v>
+        <v>641200</v>
       </c>
       <c r="H24" s="3">
-        <v>583000</v>
+        <v>602400</v>
       </c>
       <c r="I24" s="3">
-        <v>661300</v>
+        <v>577900</v>
       </c>
       <c r="J24" s="3">
+        <v>655500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1318700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3639000</v>
+        <v>4314100</v>
       </c>
       <c r="E26" s="3">
-        <v>3687300</v>
+        <v>3606900</v>
       </c>
       <c r="F26" s="3">
-        <v>3080800</v>
+        <v>3654800</v>
       </c>
       <c r="G26" s="3">
-        <v>3217700</v>
+        <v>3053600</v>
       </c>
       <c r="H26" s="3">
-        <v>2953000</v>
+        <v>3189400</v>
       </c>
       <c r="I26" s="3">
-        <v>3326000</v>
+        <v>2926900</v>
       </c>
       <c r="J26" s="3">
+        <v>3296700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2650400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3479900</v>
+        <v>4085300</v>
       </c>
       <c r="E27" s="3">
-        <v>3543800</v>
+        <v>3449200</v>
       </c>
       <c r="F27" s="3">
-        <v>2926900</v>
+        <v>3512600</v>
       </c>
       <c r="G27" s="3">
-        <v>3105600</v>
+        <v>2901100</v>
       </c>
       <c r="H27" s="3">
-        <v>3040300</v>
+        <v>3078200</v>
       </c>
       <c r="I27" s="3">
-        <v>3198200</v>
+        <v>3013500</v>
       </c>
       <c r="J27" s="3">
+        <v>3170000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2493800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>461700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-71700</v>
+        <v>457700</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-71100</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-108300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-107300</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-14300</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-579100</v>
+        <v>-692900</v>
       </c>
       <c r="E32" s="3">
-        <v>-562200</v>
+        <v>-574000</v>
       </c>
       <c r="F32" s="3">
-        <v>-460400</v>
+        <v>-557200</v>
       </c>
       <c r="G32" s="3">
-        <v>-379600</v>
+        <v>-456400</v>
       </c>
       <c r="H32" s="3">
-        <v>-416100</v>
+        <v>-376200</v>
       </c>
       <c r="I32" s="3">
-        <v>-341700</v>
+        <v>-412400</v>
       </c>
       <c r="J32" s="3">
+        <v>-338700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-366500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3941600</v>
+        <v>4085300</v>
       </c>
       <c r="E33" s="3">
-        <v>3472100</v>
+        <v>3906900</v>
       </c>
       <c r="F33" s="3">
-        <v>2926900</v>
+        <v>3441500</v>
       </c>
       <c r="G33" s="3">
-        <v>3105600</v>
+        <v>2901100</v>
       </c>
       <c r="H33" s="3">
-        <v>2932100</v>
+        <v>3078200</v>
       </c>
       <c r="I33" s="3">
-        <v>3198200</v>
+        <v>2906200</v>
       </c>
       <c r="J33" s="3">
+        <v>3170000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2479500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3941600</v>
+        <v>4085300</v>
       </c>
       <c r="E35" s="3">
-        <v>3472100</v>
+        <v>3906900</v>
       </c>
       <c r="F35" s="3">
-        <v>2926900</v>
+        <v>3441500</v>
       </c>
       <c r="G35" s="3">
-        <v>3105600</v>
+        <v>2901100</v>
       </c>
       <c r="H35" s="3">
-        <v>2932100</v>
+        <v>3078200</v>
       </c>
       <c r="I35" s="3">
-        <v>3198200</v>
+        <v>2906200</v>
       </c>
       <c r="J35" s="3">
+        <v>3170000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2479500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42916</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42551</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42185</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41820</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41455</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41090</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1140000</v>
+        <v>1204900</v>
       </c>
       <c r="E41" s="3">
-        <v>1553400</v>
+        <v>1129900</v>
       </c>
       <c r="F41" s="3">
-        <v>1420400</v>
+        <v>1539700</v>
       </c>
       <c r="G41" s="3">
-        <v>615600</v>
+        <v>1407900</v>
       </c>
       <c r="H41" s="3">
-        <v>811300</v>
+        <v>610200</v>
       </c>
       <c r="I41" s="3">
-        <v>3290800</v>
+        <v>804100</v>
       </c>
       <c r="J41" s="3">
+        <v>3261800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1403400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32600</v>
+        <v>160300</v>
       </c>
       <c r="E42" s="3">
-        <v>31300</v>
+        <v>32300</v>
       </c>
       <c r="F42" s="3">
-        <v>194300</v>
+        <v>31000</v>
       </c>
       <c r="G42" s="3">
-        <v>60000</v>
+        <v>192600</v>
       </c>
       <c r="H42" s="3">
-        <v>153900</v>
+        <v>59500</v>
       </c>
       <c r="I42" s="3">
-        <v>169600</v>
+        <v>152600</v>
       </c>
       <c r="J42" s="3">
+        <v>168100</v>
+      </c>
+      <c r="K42" s="3">
         <v>54800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3372900</v>
+        <v>3329000</v>
       </c>
       <c r="E43" s="3">
-        <v>3173400</v>
+        <v>3343200</v>
       </c>
       <c r="F43" s="3">
-        <v>3256900</v>
+        <v>3145400</v>
       </c>
       <c r="G43" s="3">
-        <v>2985600</v>
+        <v>3228100</v>
       </c>
       <c r="H43" s="3">
-        <v>3074300</v>
+        <v>2959200</v>
       </c>
       <c r="I43" s="3">
-        <v>3016900</v>
+        <v>3047200</v>
       </c>
       <c r="J43" s="3">
+        <v>2990300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2557800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6541100</v>
+        <v>7074300</v>
       </c>
       <c r="E44" s="3">
-        <v>6245000</v>
+        <v>6483400</v>
       </c>
       <c r="F44" s="3">
-        <v>5972400</v>
+        <v>6190000</v>
       </c>
       <c r="G44" s="3">
-        <v>5965900</v>
+        <v>5919800</v>
       </c>
       <c r="H44" s="3">
-        <v>5506800</v>
+        <v>5913300</v>
       </c>
       <c r="I44" s="3">
-        <v>5487200</v>
+        <v>5458200</v>
       </c>
       <c r="J44" s="3">
+        <v>5438900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5158500</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>249100</v>
+        <v>349100</v>
       </c>
       <c r="E45" s="3">
-        <v>281700</v>
+        <v>246900</v>
       </c>
       <c r="F45" s="3">
-        <v>701700</v>
+        <v>279200</v>
       </c>
       <c r="G45" s="3">
-        <v>376900</v>
+        <v>695500</v>
       </c>
       <c r="H45" s="3">
-        <v>195600</v>
+        <v>373600</v>
       </c>
       <c r="I45" s="3">
-        <v>228300</v>
+        <v>193900</v>
       </c>
       <c r="J45" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K45" s="3">
         <v>285600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11335800</v>
+        <v>12117500</v>
       </c>
       <c r="E46" s="3">
-        <v>11284900</v>
+        <v>11235800</v>
       </c>
       <c r="F46" s="3">
-        <v>11545800</v>
+        <v>11185400</v>
       </c>
       <c r="G46" s="3">
-        <v>10004100</v>
+        <v>11444000</v>
       </c>
       <c r="H46" s="3">
-        <v>9741900</v>
+        <v>9915900</v>
       </c>
       <c r="I46" s="3">
-        <v>11099700</v>
+        <v>9656000</v>
       </c>
       <c r="J46" s="3">
+        <v>11001800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9460200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4053800</v>
+        <v>4206800</v>
       </c>
       <c r="E47" s="3">
-        <v>3836000</v>
+        <v>4003800</v>
       </c>
       <c r="F47" s="3">
-        <v>3431600</v>
+        <v>3789200</v>
       </c>
       <c r="G47" s="3">
-        <v>3280300</v>
+        <v>3391000</v>
       </c>
       <c r="H47" s="3">
-        <v>4722900</v>
+        <v>3110500</v>
       </c>
       <c r="I47" s="3">
-        <v>4503800</v>
+        <v>4599800</v>
       </c>
       <c r="J47" s="3">
+        <v>3931400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3807300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5363300</v>
+        <v>5803400</v>
       </c>
       <c r="E48" s="3">
-        <v>5262900</v>
+        <v>5316000</v>
       </c>
       <c r="F48" s="3">
-        <v>5075100</v>
+        <v>5216500</v>
       </c>
       <c r="G48" s="3">
-        <v>4897700</v>
+        <v>5030300</v>
       </c>
       <c r="H48" s="3">
-        <v>4546800</v>
+        <v>4854500</v>
       </c>
       <c r="I48" s="3">
-        <v>1567800</v>
+        <v>4506700</v>
       </c>
       <c r="J48" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3920800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16397800</v>
+        <v>16233800</v>
       </c>
       <c r="E49" s="3">
-        <v>16390000</v>
+        <v>16253200</v>
       </c>
       <c r="F49" s="3">
-        <v>16134300</v>
+        <v>16245500</v>
       </c>
       <c r="G49" s="3">
-        <v>14648700</v>
+        <v>15992100</v>
       </c>
       <c r="H49" s="3">
-        <v>10292300</v>
+        <v>14519500</v>
       </c>
       <c r="I49" s="3">
-        <v>12910100</v>
+        <v>10201600</v>
       </c>
       <c r="J49" s="3">
+        <v>12796200</v>
+      </c>
+      <c r="K49" s="3">
         <v>11505300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1606900</v>
+        <v>2098200</v>
       </c>
       <c r="E52" s="3">
-        <v>853000</v>
+        <v>1607000</v>
       </c>
       <c r="F52" s="3">
-        <v>974300</v>
+        <v>858400</v>
       </c>
       <c r="G52" s="3">
-        <v>825600</v>
+        <v>976100</v>
       </c>
       <c r="H52" s="3">
-        <v>648200</v>
+        <v>959300</v>
       </c>
       <c r="I52" s="3">
-        <v>722600</v>
+        <v>724000</v>
       </c>
       <c r="J52" s="3">
+        <v>1248900</v>
+      </c>
+      <c r="K52" s="3">
         <v>457800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38757600</v>
+        <v>40459800</v>
       </c>
       <c r="E54" s="3">
-        <v>37626700</v>
+        <v>38415800</v>
       </c>
       <c r="F54" s="3">
-        <v>37161100</v>
+        <v>37295000</v>
       </c>
       <c r="G54" s="3">
-        <v>33656400</v>
+        <v>36833400</v>
       </c>
       <c r="H54" s="3">
-        <v>29952200</v>
+        <v>33359700</v>
       </c>
       <c r="I54" s="3">
-        <v>32596000</v>
+        <v>29688100</v>
       </c>
       <c r="J54" s="3">
+        <v>32308600</v>
+      </c>
+      <c r="K54" s="3">
         <v>29151300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1974700</v>
+        <v>2190000</v>
       </c>
       <c r="E57" s="3">
-        <v>1780400</v>
+        <v>1957300</v>
       </c>
       <c r="F57" s="3">
-        <v>1419100</v>
+        <v>1764700</v>
       </c>
       <c r="G57" s="3">
-        <v>1151700</v>
+        <v>1406600</v>
       </c>
       <c r="H57" s="3">
-        <v>1177800</v>
+        <v>1141600</v>
       </c>
       <c r="I57" s="3">
-        <v>1417800</v>
+        <v>1167400</v>
       </c>
       <c r="J57" s="3">
+        <v>1405300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1406000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2424700</v>
+        <v>2588200</v>
       </c>
       <c r="E58" s="3">
-        <v>3241200</v>
+        <v>2403300</v>
       </c>
       <c r="F58" s="3">
-        <v>2722100</v>
+        <v>3212600</v>
       </c>
       <c r="G58" s="3">
-        <v>2709100</v>
+        <v>2698100</v>
       </c>
       <c r="H58" s="3">
-        <v>2246000</v>
+        <v>2685200</v>
       </c>
       <c r="I58" s="3">
-        <v>2574700</v>
+        <v>2226200</v>
       </c>
       <c r="J58" s="3">
+        <v>2552000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1751700</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3896000</v>
+        <v>4275300</v>
       </c>
       <c r="E59" s="3">
-        <v>3665100</v>
+        <v>3861600</v>
       </c>
       <c r="F59" s="3">
-        <v>3928600</v>
+        <v>3632800</v>
       </c>
       <c r="G59" s="3">
-        <v>3039000</v>
+        <v>3893900</v>
       </c>
       <c r="H59" s="3">
-        <v>2903400</v>
+        <v>3012200</v>
       </c>
       <c r="I59" s="3">
-        <v>3206000</v>
+        <v>2877800</v>
       </c>
       <c r="J59" s="3">
+        <v>3177700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3082100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8295400</v>
+        <v>9053500</v>
       </c>
       <c r="E60" s="3">
-        <v>8686700</v>
+        <v>8222300</v>
       </c>
       <c r="F60" s="3">
-        <v>8069800</v>
+        <v>8610100</v>
       </c>
       <c r="G60" s="3">
-        <v>6899800</v>
+        <v>7998600</v>
       </c>
       <c r="H60" s="3">
-        <v>6327200</v>
+        <v>6839000</v>
       </c>
       <c r="I60" s="3">
-        <v>7198500</v>
+        <v>6271400</v>
       </c>
       <c r="J60" s="3">
+        <v>7135000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6239800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10692700</v>
+        <v>13808500</v>
       </c>
       <c r="E61" s="3">
-        <v>8791000</v>
+        <v>10598500</v>
       </c>
       <c r="F61" s="3">
-        <v>10804900</v>
+        <v>8713500</v>
       </c>
       <c r="G61" s="3">
-        <v>10904000</v>
+        <v>10709600</v>
       </c>
       <c r="H61" s="3">
-        <v>9962300</v>
+        <v>10807900</v>
       </c>
       <c r="I61" s="3">
-        <v>10717500</v>
+        <v>9874500</v>
       </c>
       <c r="J61" s="3">
+        <v>10623000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9920600</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4492000</v>
+        <v>4468000</v>
       </c>
       <c r="E62" s="3">
-        <v>4460700</v>
+        <v>4452400</v>
       </c>
       <c r="F62" s="3">
-        <v>5338500</v>
+        <v>4421400</v>
       </c>
       <c r="G62" s="3">
-        <v>3779900</v>
+        <v>5291500</v>
       </c>
       <c r="H62" s="3">
-        <v>3762900</v>
+        <v>3746600</v>
       </c>
       <c r="I62" s="3">
-        <v>4272900</v>
+        <v>3729800</v>
       </c>
       <c r="J62" s="3">
+        <v>4235200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4107300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25782300</v>
+        <v>29650600</v>
       </c>
       <c r="E66" s="3">
-        <v>24175400</v>
+        <v>25555000</v>
       </c>
       <c r="F66" s="3">
-        <v>26035300</v>
+        <v>23962200</v>
       </c>
       <c r="G66" s="3">
-        <v>23520600</v>
+        <v>25805800</v>
       </c>
       <c r="H66" s="3">
-        <v>21052900</v>
+        <v>23313200</v>
       </c>
       <c r="I66" s="3">
-        <v>23418900</v>
+        <v>20867200</v>
       </c>
       <c r="J66" s="3">
+        <v>23212400</v>
+      </c>
+      <c r="K66" s="3">
         <v>21862800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14338300</v>
+        <v>11767200</v>
       </c>
       <c r="E72" s="3">
-        <v>14082600</v>
+        <v>14211900</v>
       </c>
       <c r="F72" s="3">
-        <v>11864000</v>
+        <v>13958500</v>
       </c>
       <c r="G72" s="3">
-        <v>11749200</v>
+        <v>11759400</v>
       </c>
       <c r="H72" s="3">
-        <v>10257100</v>
+        <v>11645600</v>
       </c>
       <c r="I72" s="3">
-        <v>9285400</v>
+        <v>10166700</v>
       </c>
       <c r="J72" s="3">
+        <v>9203500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3249000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12975300</v>
+        <v>10809200</v>
       </c>
       <c r="E76" s="3">
-        <v>13451300</v>
+        <v>12860900</v>
       </c>
       <c r="F76" s="3">
-        <v>11125800</v>
+        <v>13332700</v>
       </c>
       <c r="G76" s="3">
-        <v>10135800</v>
+        <v>11027700</v>
       </c>
       <c r="H76" s="3">
-        <v>8899300</v>
+        <v>10046400</v>
       </c>
       <c r="I76" s="3">
-        <v>9177100</v>
+        <v>8820800</v>
       </c>
       <c r="J76" s="3">
+        <v>9096200</v>
+      </c>
+      <c r="K76" s="3">
         <v>7288500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42916</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42551</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42185</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41820</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41455</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41090</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3941600</v>
+        <v>4085300</v>
       </c>
       <c r="E81" s="3">
-        <v>3472100</v>
+        <v>3906900</v>
       </c>
       <c r="F81" s="3">
-        <v>2926900</v>
+        <v>3441500</v>
       </c>
       <c r="G81" s="3">
-        <v>3105600</v>
+        <v>2901100</v>
       </c>
       <c r="H81" s="3">
-        <v>2932100</v>
+        <v>3078200</v>
       </c>
       <c r="I81" s="3">
-        <v>3198200</v>
+        <v>2906200</v>
       </c>
       <c r="J81" s="3">
+        <v>3170000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2479500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>643000</v>
+        <v>483500</v>
       </c>
       <c r="E83" s="3">
-        <v>470900</v>
+        <v>637400</v>
       </c>
       <c r="F83" s="3">
-        <v>616900</v>
+        <v>466700</v>
       </c>
       <c r="G83" s="3">
-        <v>573900</v>
+        <v>611500</v>
       </c>
       <c r="H83" s="3">
-        <v>820400</v>
+        <v>568800</v>
       </c>
       <c r="I83" s="3">
-        <v>519100</v>
+        <v>813200</v>
       </c>
       <c r="J83" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K83" s="3">
         <v>530900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4022500</v>
+        <v>4199000</v>
       </c>
       <c r="E89" s="3">
-        <v>4085100</v>
+        <v>3987000</v>
       </c>
       <c r="F89" s="3">
-        <v>3323400</v>
+        <v>4049100</v>
       </c>
       <c r="G89" s="3">
-        <v>3327300</v>
+        <v>3294100</v>
       </c>
       <c r="H89" s="3">
-        <v>2334700</v>
+        <v>3298000</v>
       </c>
       <c r="I89" s="3">
-        <v>2651700</v>
+        <v>2314100</v>
       </c>
       <c r="J89" s="3">
+        <v>2628300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2733800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-761700</v>
+        <v>-867500</v>
       </c>
       <c r="E91" s="3">
-        <v>-675600</v>
+        <v>-755000</v>
       </c>
       <c r="F91" s="3">
-        <v>-660000</v>
+        <v>-669700</v>
       </c>
       <c r="G91" s="3">
-        <v>-832100</v>
+        <v>-654200</v>
       </c>
       <c r="H91" s="3">
-        <v>-837400</v>
+        <v>-824800</v>
       </c>
       <c r="I91" s="3">
-        <v>-829500</v>
+        <v>-830000</v>
       </c>
       <c r="J91" s="3">
+        <v>-822200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-622200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1501300</v>
+        <v>-349100</v>
       </c>
       <c r="E94" s="3">
-        <v>-720000</v>
+        <v>-1488000</v>
       </c>
       <c r="F94" s="3">
-        <v>777400</v>
+        <v>-713600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1166100</v>
+        <v>770500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1420400</v>
+        <v>-1155800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1618600</v>
+        <v>-1407900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1604400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2358200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2062100</v>
+        <v>-2098200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1976000</v>
+        <v>-2043900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1882100</v>
+        <v>-1958600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1749100</v>
+        <v>-1865500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1601700</v>
+        <v>-1733700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1467300</v>
+        <v>-1587600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1454400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1351300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2762500</v>
+        <v>-3780200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3206000</v>
+        <v>-2738200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3653400</v>
+        <v>-3177700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2261700</v>
+        <v>-3621200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2115600</v>
+        <v>-2241700</v>
       </c>
       <c r="I100" s="3">
-        <v>-258300</v>
+        <v>-2096900</v>
       </c>
       <c r="J100" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1027800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-50900</v>
+        <v>-33600</v>
       </c>
       <c r="E101" s="3">
-        <v>-18300</v>
+        <v>-50400</v>
       </c>
       <c r="F101" s="3">
-        <v>109600</v>
+        <v>-18100</v>
       </c>
       <c r="G101" s="3">
-        <v>-95200</v>
+        <v>108600</v>
       </c>
       <c r="H101" s="3">
-        <v>-250400</v>
+        <v>-94400</v>
       </c>
       <c r="I101" s="3">
-        <v>47000</v>
+        <v>-248200</v>
       </c>
       <c r="J101" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-35200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-292200</v>
+        <v>36200</v>
       </c>
       <c r="E102" s="3">
-        <v>140900</v>
+        <v>-289600</v>
       </c>
       <c r="F102" s="3">
-        <v>556900</v>
+        <v>139600</v>
       </c>
       <c r="G102" s="3">
-        <v>-195600</v>
+        <v>552000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1451700</v>
+        <v>-193900</v>
       </c>
       <c r="I102" s="3">
-        <v>821700</v>
+        <v>-1438900</v>
       </c>
       <c r="J102" s="3">
+        <v>814500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-687400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
